--- a/MISO/Constraint Analyses/Top Congestion Reports/Jul-25_RT.xlsx
+++ b/MISO/Constraint Analyses/Top Congestion Reports/Jul-25_RT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LoganGraham\OneDrive - Roscommon Analytics\Documents\Obsidian_Vault\MISO\Constraint Analyses\Top Congestion Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://roscommonanalytics-my.sharepoint.com/personal/lgraham_roscommonanalytics_com/Documents/Documents/Obsidian_Vault/MISO/Constraint Analyses/Top Congestion Reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46514797-A3AC-4C40-AE00-D51D099F25A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{46514797-A3AC-4C40-AE00-D51D099F25A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E1E5F09-FE18-4BEE-8D01-4EFE9B4EE0A0}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{4DD6896D-C82E-42A6-AB2C-11B84C1134C5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="31920" activeTab="1" xr2:uid="{4DD6896D-C82E-42A6-AB2C-11B84C1134C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Jul-25 RT Pk" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="139">
   <si>
     <t>cid</t>
   </si>
@@ -451,6 +451,9 @@
   </si>
   <si>
     <t>Chub Lk-Helena, Chub Lk-Hampton 345 kV outages. Wind push. Not the top candidate for these drivers, but it's worthy of consideration. Saint Cloud pull.</t>
+  </si>
+  <si>
+    <t>drivers</t>
   </si>
 </sst>
 </file>
@@ -855,7 +858,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,7 +923,9 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1"/>
+      <c r="O1" s="1" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
@@ -1869,7 +1874,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1934,7 +1939,9 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1"/>
+      <c r="O1" s="1" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
